--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Fgf15-Fgfr2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Fgf15-Fgfr2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,19 +76,22 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
     <t>MuSCs</t>
   </si>
   <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
     <t>Fgf15</t>
   </si>
   <si>
     <t>Fgfr2</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
 </sst>
 </file>
@@ -446,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,13 +522,13 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -534,46 +537,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.06149566666666666</v>
+        <v>0.06665</v>
       </c>
       <c r="H2">
-        <v>0.184487</v>
+        <v>0.19995</v>
       </c>
       <c r="I2">
-        <v>0.7313686080024103</v>
+        <v>0.3040875017679506</v>
       </c>
       <c r="J2">
-        <v>0.7313686080024102</v>
+        <v>0.3040875017679506</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.033285</v>
+        <v>0.7144740000000001</v>
       </c>
       <c r="N2">
-        <v>0.099855</v>
+        <v>2.143422</v>
       </c>
       <c r="O2">
-        <v>0.007684499559038781</v>
+        <v>0.138796410342318</v>
       </c>
       <c r="P2">
-        <v>0.007684499559038781</v>
+        <v>0.138796410342318</v>
       </c>
       <c r="Q2">
-        <v>0.002046883265</v>
+        <v>0.04761969210000001</v>
       </c>
       <c r="R2">
-        <v>0.018421949385</v>
+        <v>0.4285772289</v>
       </c>
       <c r="S2">
-        <v>0.005620201745689329</v>
+        <v>0.04220625367535483</v>
       </c>
       <c r="T2">
-        <v>0.005620201745689328</v>
+        <v>0.04220625367535482</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,13 +584,13 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -596,16 +599,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.06149566666666666</v>
+        <v>0.06665</v>
       </c>
       <c r="H3">
-        <v>0.184487</v>
+        <v>0.19995</v>
       </c>
       <c r="I3">
-        <v>0.7313686080024103</v>
+        <v>0.3040875017679506</v>
       </c>
       <c r="J3">
-        <v>0.7313686080024102</v>
+        <v>0.3040875017679506</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +623,22 @@
         <v>12.422619</v>
       </c>
       <c r="O3">
-        <v>0.9560023056192156</v>
+        <v>0.8044215857867821</v>
       </c>
       <c r="P3">
-        <v>0.9560023056192157</v>
+        <v>0.8044215857867821</v>
       </c>
       <c r="Q3">
-        <v>0.254645745717</v>
+        <v>0.27598918545</v>
       </c>
       <c r="R3">
-        <v>2.291811711453</v>
+        <v>2.48390266905</v>
       </c>
       <c r="S3">
-        <v>0.6991900755078205</v>
+        <v>0.2446145503901158</v>
       </c>
       <c r="T3">
-        <v>0.6991900755078205</v>
+        <v>0.2446145503901157</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -643,13 +646,13 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" t="s">
         <v>22</v>
-      </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" t="s">
-        <v>21</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -658,16 +661,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.06149566666666666</v>
+        <v>0.06665</v>
       </c>
       <c r="H4">
-        <v>0.184487</v>
+        <v>0.19995</v>
       </c>
       <c r="I4">
-        <v>0.7313686080024103</v>
+        <v>0.3040875017679506</v>
       </c>
       <c r="J4">
-        <v>0.7313686080024102</v>
+        <v>0.3040875017679506</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,42 +679,42 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.1572886666666667</v>
+        <v>0.2847646666666667</v>
       </c>
       <c r="N4">
-        <v>0.471866</v>
+        <v>0.8542940000000001</v>
       </c>
       <c r="O4">
-        <v>0.03631319482174546</v>
+        <v>0.05531945672713084</v>
       </c>
       <c r="P4">
-        <v>0.03631319482174546</v>
+        <v>0.05531945672713083</v>
       </c>
       <c r="Q4">
-        <v>0.009672571415777776</v>
+        <v>0.01897956503333334</v>
       </c>
       <c r="R4">
-        <v>0.08705314274199999</v>
+        <v>0.1708160853</v>
       </c>
       <c r="S4">
-        <v>0.02655833074890031</v>
+        <v>0.01682195539531347</v>
       </c>
       <c r="T4">
-        <v>0.02655833074890031</v>
+        <v>0.01682195539531346</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
-      </c>
-      <c r="D5" t="s">
-        <v>24</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -720,46 +723,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.02258733333333333</v>
+        <v>0.06665</v>
       </c>
       <c r="H5">
-        <v>0.067762</v>
+        <v>0.19995</v>
       </c>
       <c r="I5">
-        <v>0.2686313919975897</v>
+        <v>0.3040875017679506</v>
       </c>
       <c r="J5">
-        <v>0.2686313919975897</v>
+        <v>0.3040875017679506</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.033285</v>
+        <v>0.007528666666666667</v>
       </c>
       <c r="N5">
-        <v>0.099855</v>
+        <v>0.022586</v>
       </c>
       <c r="O5">
-        <v>0.007684499559038781</v>
+        <v>0.00146254714376898</v>
       </c>
       <c r="P5">
-        <v>0.007684499559038781</v>
+        <v>0.00146254714376898</v>
       </c>
       <c r="Q5">
-        <v>0.0007518193900000001</v>
+        <v>0.0005017856333333334</v>
       </c>
       <c r="R5">
-        <v>0.00676637451</v>
+        <v>0.0045160707</v>
       </c>
       <c r="S5">
-        <v>0.002064297813349452</v>
+        <v>0.0004447423071665609</v>
       </c>
       <c r="T5">
-        <v>0.002064297813349452</v>
+        <v>0.0004447423071665607</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -767,10 +770,10 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
         <v>20</v>
@@ -782,16 +785,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>0.02258733333333333</v>
+        <v>0.06149566666666667</v>
       </c>
       <c r="H6">
-        <v>0.067762</v>
+        <v>0.184487</v>
       </c>
       <c r="I6">
-        <v>0.2686313919975897</v>
+        <v>0.2805710974676865</v>
       </c>
       <c r="J6">
-        <v>0.2686313919975897</v>
+        <v>0.2805710974676864</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -800,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>4.140873</v>
+        <v>0.7144740000000001</v>
       </c>
       <c r="N6">
-        <v>12.422619</v>
+        <v>2.143422</v>
       </c>
       <c r="O6">
-        <v>0.9560023056192156</v>
+        <v>0.138796410342318</v>
       </c>
       <c r="P6">
-        <v>0.9560023056192157</v>
+        <v>0.138796410342318</v>
       </c>
       <c r="Q6">
-        <v>0.093531278742</v>
+        <v>0.043937054946</v>
       </c>
       <c r="R6">
-        <v>0.8417815086780001</v>
+        <v>0.3954334945140001</v>
       </c>
       <c r="S6">
-        <v>0.2568122301113951</v>
+        <v>0.03894226117431952</v>
       </c>
       <c r="T6">
-        <v>0.2568122301113951</v>
+        <v>0.03894226117431951</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -829,10 +832,10 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
         <v>21</v>
@@ -844,16 +847,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G7">
-        <v>0.02258733333333333</v>
+        <v>0.06149566666666667</v>
       </c>
       <c r="H7">
-        <v>0.067762</v>
+        <v>0.184487</v>
       </c>
       <c r="I7">
-        <v>0.2686313919975897</v>
+        <v>0.2805710974676865</v>
       </c>
       <c r="J7">
-        <v>0.2686313919975897</v>
+        <v>0.2805710974676864</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +865,648 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.1572886666666667</v>
+        <v>4.140873</v>
       </c>
       <c r="N7">
-        <v>0.471866</v>
+        <v>12.422619</v>
       </c>
       <c r="O7">
-        <v>0.03631319482174546</v>
+        <v>0.8044215857867821</v>
       </c>
       <c r="P7">
-        <v>0.03631319482174546</v>
+        <v>0.8044215857867821</v>
       </c>
       <c r="Q7">
-        <v>0.003552731543555556</v>
+        <v>0.254645745717</v>
       </c>
       <c r="R7">
-        <v>0.031974583892</v>
+        <v>2.291811711453</v>
       </c>
       <c r="S7">
-        <v>0.00975486407284515</v>
+        <v>0.2256974471508942</v>
       </c>
       <c r="T7">
-        <v>0.009754864072845149</v>
+        <v>0.2256974471508941</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G8">
+        <v>0.06149566666666667</v>
+      </c>
+      <c r="H8">
+        <v>0.184487</v>
+      </c>
+      <c r="I8">
+        <v>0.2805710974676865</v>
+      </c>
+      <c r="J8">
+        <v>0.2805710974676864</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>0.2847646666666667</v>
+      </c>
+      <c r="N8">
+        <v>0.8542940000000001</v>
+      </c>
+      <c r="O8">
+        <v>0.05531945672713084</v>
+      </c>
+      <c r="P8">
+        <v>0.05531945672713083</v>
+      </c>
+      <c r="Q8">
+        <v>0.01751179301977778</v>
+      </c>
+      <c r="R8">
+        <v>0.157606137178</v>
+      </c>
+      <c r="S8">
+        <v>0.01552104068524729</v>
+      </c>
+      <c r="T8">
+        <v>0.01552104068524729</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G9">
+        <v>0.06149566666666667</v>
+      </c>
+      <c r="H9">
+        <v>0.184487</v>
+      </c>
+      <c r="I9">
+        <v>0.2805710974676865</v>
+      </c>
+      <c r="J9">
+        <v>0.2805710974676864</v>
+      </c>
+      <c r="K9">
+        <v>2</v>
+      </c>
+      <c r="L9">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M9">
+        <v>0.007528666666666667</v>
+      </c>
+      <c r="N9">
+        <v>0.022586</v>
+      </c>
+      <c r="O9">
+        <v>0.00146254714376898</v>
+      </c>
+      <c r="P9">
+        <v>0.00146254714376898</v>
+      </c>
+      <c r="Q9">
+        <v>0.0004629803757777778</v>
+      </c>
+      <c r="R9">
+        <v>0.004166823382</v>
+      </c>
+      <c r="S9">
+        <v>0.000410348457225493</v>
+      </c>
+      <c r="T9">
+        <v>0.0004103484572254929</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G10">
+        <v>0.057558</v>
+      </c>
+      <c r="H10">
+        <v>0.172674</v>
+      </c>
+      <c r="I10">
+        <v>0.2626056778208508</v>
+      </c>
+      <c r="J10">
+        <v>0.2626056778208507</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>0.7144740000000001</v>
+      </c>
+      <c r="N10">
+        <v>2.143422</v>
+      </c>
+      <c r="O10">
+        <v>0.138796410342318</v>
+      </c>
+      <c r="P10">
+        <v>0.138796410342318</v>
+      </c>
+      <c r="Q10">
+        <v>0.041123694492</v>
+      </c>
+      <c r="R10">
+        <v>0.370113250428</v>
+      </c>
+      <c r="S10">
+        <v>0.03644872541704536</v>
+      </c>
+      <c r="T10">
+        <v>0.03644872541704536</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G11">
+        <v>0.057558</v>
+      </c>
+      <c r="H11">
+        <v>0.172674</v>
+      </c>
+      <c r="I11">
+        <v>0.2626056778208508</v>
+      </c>
+      <c r="J11">
+        <v>0.2626056778208507</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>4.140873</v>
+      </c>
+      <c r="N11">
+        <v>12.422619</v>
+      </c>
+      <c r="O11">
+        <v>0.8044215857867821</v>
+      </c>
+      <c r="P11">
+        <v>0.8044215857867821</v>
+      </c>
+      <c r="Q11">
+        <v>0.238340368134</v>
+      </c>
+      <c r="R11">
+        <v>2.145063313206</v>
+      </c>
+      <c r="S11">
+        <v>0.2112456757892616</v>
+      </c>
+      <c r="T11">
+        <v>0.2112456757892615</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G12">
+        <v>0.057558</v>
+      </c>
+      <c r="H12">
+        <v>0.172674</v>
+      </c>
+      <c r="I12">
+        <v>0.2626056778208508</v>
+      </c>
+      <c r="J12">
+        <v>0.2626056778208507</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>0.2847646666666667</v>
+      </c>
+      <c r="N12">
+        <v>0.8542940000000001</v>
+      </c>
+      <c r="O12">
+        <v>0.05531945672713084</v>
+      </c>
+      <c r="P12">
+        <v>0.05531945672713083</v>
+      </c>
+      <c r="Q12">
+        <v>0.016390484684</v>
+      </c>
+      <c r="R12">
+        <v>0.147514362156</v>
+      </c>
+      <c r="S12">
+        <v>0.01452720343050942</v>
+      </c>
+      <c r="T12">
+        <v>0.01452720343050941</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G13">
+        <v>0.057558</v>
+      </c>
+      <c r="H13">
+        <v>0.172674</v>
+      </c>
+      <c r="I13">
+        <v>0.2626056778208508</v>
+      </c>
+      <c r="J13">
+        <v>0.2626056778208507</v>
+      </c>
+      <c r="K13">
+        <v>2</v>
+      </c>
+      <c r="L13">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M13">
+        <v>0.007528666666666667</v>
+      </c>
+      <c r="N13">
+        <v>0.022586</v>
+      </c>
+      <c r="O13">
+        <v>0.00146254714376898</v>
+      </c>
+      <c r="P13">
+        <v>0.00146254714376898</v>
+      </c>
+      <c r="Q13">
+        <v>0.000433334996</v>
+      </c>
+      <c r="R13">
+        <v>0.003900014964</v>
+      </c>
+      <c r="S13">
+        <v>0.0003840731840344023</v>
+      </c>
+      <c r="T13">
+        <v>0.0003840731840344021</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G14">
+        <v>0.03347666666666666</v>
+      </c>
+      <c r="H14">
+        <v>0.10043</v>
+      </c>
+      <c r="I14">
+        <v>0.1527357229435123</v>
+      </c>
+      <c r="J14">
+        <v>0.1527357229435123</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>0.7144740000000001</v>
+      </c>
+      <c r="N14">
+        <v>2.143422</v>
+      </c>
+      <c r="O14">
+        <v>0.138796410342318</v>
+      </c>
+      <c r="P14">
+        <v>0.138796410342318</v>
+      </c>
+      <c r="Q14">
+        <v>0.02391820794</v>
+      </c>
+      <c r="R14">
+        <v>0.21526387146</v>
+      </c>
+      <c r="S14">
+        <v>0.02119917007559832</v>
+      </c>
+      <c r="T14">
+        <v>0.02119917007559832</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G15">
+        <v>0.03347666666666666</v>
+      </c>
+      <c r="H15">
+        <v>0.10043</v>
+      </c>
+      <c r="I15">
+        <v>0.1527357229435123</v>
+      </c>
+      <c r="J15">
+        <v>0.1527357229435123</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>4.140873</v>
+      </c>
+      <c r="N15">
+        <v>12.422619</v>
+      </c>
+      <c r="O15">
+        <v>0.8044215857867821</v>
+      </c>
+      <c r="P15">
+        <v>0.8044215857867821</v>
+      </c>
+      <c r="Q15">
+        <v>0.13862262513</v>
+      </c>
+      <c r="R15">
+        <v>1.24760362617</v>
+      </c>
+      <c r="S15">
+        <v>0.1228639124565107</v>
+      </c>
+      <c r="T15">
+        <v>0.1228639124565107</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G16">
+        <v>0.03347666666666666</v>
+      </c>
+      <c r="H16">
+        <v>0.10043</v>
+      </c>
+      <c r="I16">
+        <v>0.1527357229435123</v>
+      </c>
+      <c r="J16">
+        <v>0.1527357229435123</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>0.2847646666666667</v>
+      </c>
+      <c r="N16">
+        <v>0.8542940000000001</v>
+      </c>
+      <c r="O16">
+        <v>0.05531945672713084</v>
+      </c>
+      <c r="P16">
+        <v>0.05531945672713083</v>
+      </c>
+      <c r="Q16">
+        <v>0.009532971824444444</v>
+      </c>
+      <c r="R16">
+        <v>0.08579674642</v>
+      </c>
+      <c r="S16">
+        <v>0.008449257216060673</v>
+      </c>
+      <c r="T16">
+        <v>0.008449257216060669</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G17">
+        <v>0.03347666666666666</v>
+      </c>
+      <c r="H17">
+        <v>0.10043</v>
+      </c>
+      <c r="I17">
+        <v>0.1527357229435123</v>
+      </c>
+      <c r="J17">
+        <v>0.1527357229435123</v>
+      </c>
+      <c r="K17">
+        <v>2</v>
+      </c>
+      <c r="L17">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M17">
+        <v>0.007528666666666667</v>
+      </c>
+      <c r="N17">
+        <v>0.022586</v>
+      </c>
+      <c r="O17">
+        <v>0.00146254714376898</v>
+      </c>
+      <c r="P17">
+        <v>0.00146254714376898</v>
+      </c>
+      <c r="Q17">
+        <v>0.0002520346644444444</v>
+      </c>
+      <c r="R17">
+        <v>0.00226831198</v>
+      </c>
+      <c r="S17">
+        <v>0.0002233831953425241</v>
+      </c>
+      <c r="T17">
+        <v>0.0002233831953425241</v>
       </c>
     </row>
   </sheetData>
